--- a/Hampi_weekend.xlsx
+++ b/Hampi_weekend.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GPACKIRI\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13E7B42D-8041-4E69-AD36-FD26DCDFFF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C67F6A-C716-4280-8897-92D9E1CAD07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3F7CC188-FA8F-4438-82CB-B99E32DC8F0E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F7CC188-FA8F-4438-82CB-B99E32DC8F0E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,40 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
-  <si>
-    <t>Loans</t>
-  </si>
-  <si>
-    <t>HDFC</t>
-  </si>
-  <si>
-    <t>SBI</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>JAN</t>
-  </si>
-  <si>
-    <t>To be</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Appa</t>
-  </si>
-  <si>
-    <t>Cash in hand</t>
-  </si>
-  <si>
-    <t>Needed</t>
-  </si>
-  <si>
-    <t>madhan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Cash spent</t>
   </si>
@@ -173,18 +139,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -211,14 +171,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,204 +511,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B7D81E-5599-4EDC-9E7D-AD8ECCF79983}">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>15000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>5000</v>
-      </c>
-      <c r="G3">
-        <v>137000</v>
-      </c>
-      <c r="H3">
-        <f>G3-F5</f>
-        <v>122000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>16000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>128656</v>
-      </c>
-      <c r="F5">
-        <v>15000</v>
-      </c>
-      <c r="G5">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>10934</v>
-      </c>
-      <c r="F6">
-        <f>SUM(E6:E8)</f>
-        <v>41552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>21618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>20000</v>
-      </c>
-      <c r="F9">
-        <v>8000</v>
-      </c>
-      <c r="G9">
-        <v>5000</v>
-      </c>
-      <c r="I9">
-        <f>F6+G5-I5</f>
-        <v>106552</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3508F98-F9A8-40F4-81BC-33DD6B9775B7}">
   <dimension ref="A2:J38"/>
   <sheetViews>
@@ -760,26 +521,26 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>450</v>
@@ -806,7 +567,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>6717</v>
@@ -832,17 +593,17 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
         <v>20</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>292</v>
@@ -869,7 +630,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>4405.59</v>
@@ -895,17 +656,17 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
         <v>21</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>522.58000000000004</v>
@@ -916,17 +677,17 @@
       <c r="H10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
         <v>22</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>580</v>
@@ -949,17 +710,17 @@
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
         <v>23</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>155.66</v>
@@ -983,7 +744,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>208.66</v>
@@ -1007,7 +768,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>291.99</v>
@@ -1031,7 +792,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>358</v>
@@ -1055,7 +816,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>220</v>
@@ -1079,7 +840,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>572.24</v>
@@ -1103,7 +864,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>1180</v>
@@ -1132,17 +893,17 @@
       <c r="H22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
         <v>24</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>430</v>
@@ -1166,7 +927,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>950</v>
@@ -1193,7 +954,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>1825</v>
@@ -1220,7 +981,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>520</v>
@@ -1247,7 +1008,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>490</v>
@@ -1271,7 +1032,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>677.5</v>
@@ -1297,17 +1058,17 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="3">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2">
         <v>25</v>
       </c>
       <c r="H30"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>166</v>
@@ -1323,7 +1084,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>186</v>
@@ -1347,7 +1108,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>4276</v>
@@ -1369,17 +1130,17 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="3">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2">
         <v>26</v>
       </c>
       <c r="H34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>913</v>
@@ -1403,7 +1164,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C36">
         <v>210</v>
@@ -1424,30 +1185,30 @@
         <v>70</v>
       </c>
       <c r="H36"/>
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <f>SUM(E3:H36)</f>
         <v>26074.639999999996</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <f>SUM(E3:E36)</f>
         <v>7340.7891666666656</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <f>SUM(F3:F36)</f>
         <v>7340.7891666666656</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <f>SUM(G3:G36)</f>
         <v>6081.4558333333325</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <f>SUM(H3:H36)</f>
         <v>5311.6058333333331</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="5">
+      <c r="I38" s="1"/>
+      <c r="J38" s="4">
         <f>SUM(E38:H38)</f>
         <v>26074.639999999999</v>
       </c>
